--- a/products.xlsx
+++ b/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,31 @@
           <t>Price</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Src_DeliveryReceipt</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Src_Remaining</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Src_Transfers</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Src_Beverages</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DR Price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -473,6 +498,21 @@
       </c>
       <c r="D2" t="n">
         <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
